--- a/secondseqtion/is_gorecek_sekilde/sube.xlsx
+++ b/secondseqtion/is_gorecek_sekilde/sube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ömer Can Bozkurt\Desktop\github\ticketDatabase\secondseqtion\is_gorecek_sekilde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB798DAE-605D-4022-9ACE-06DF43D9B99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0650B-A5A2-45DE-AF99-D6B644DC82C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5702,6 +5702,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
